--- a/UnitTest/4_real.xlsx
+++ b/UnitTest/4_real.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KOTb\ExcelBiblT\UnitTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFB0BBE-511A-41EA-B1F8-3A4CA7E35F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EA4AD1-DD3E-4FE3-9C9A-A8DDEB2E5932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="3" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="775">
   <si>
     <t>Название</t>
   </si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>Все, что не выделено Полужирным, это редактируемые пользователем параметры</t>
-  </si>
-  <si>
-    <t>Вывод столбца (можно менять по необходимости, например, для локализации)</t>
   </si>
   <si>
     <t>Игнорируемые предметы</t>
@@ -457,9 +454,6 @@
     <t>Граф неориентированный</t>
   </si>
   <si>
-    <t>ЗЕ у компетенции</t>
-  </si>
-  <si>
     <t>Первая группа - компетенция, Вторая группа - номер компетенции, Третья группа - индикатор</t>
   </si>
   <si>
@@ -2056,9 +2050,6 @@
     <t>Не оставлять пустые ячейки при выводе дерева компетенций</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Формула расчёта весов рёбер графа, где вершины - это дисциплина</t>
   </si>
   <si>
@@ -2089,9 +2080,6 @@
     <t>Среднее усечённое:</t>
   </si>
   <si>
-    <t>Truncated mean:</t>
-  </si>
-  <si>
     <t>Название файла вывода общей статистике по всей выборке УП</t>
   </si>
   <si>
@@ -2203,120 +2191,33 @@
     <t>дача государственного экзамена</t>
   </si>
   <si>
-    <t>UGSN code</t>
-  </si>
-  <si>
-    <t>Total credit curriculum</t>
-  </si>
-  <si>
     <t>!ЗЕ основных дисциплин</t>
   </si>
   <si>
-    <t>Basic credits curriculum</t>
-  </si>
-  <si>
     <t>!ЗЕ дисциплин по выбору</t>
   </si>
   <si>
-    <t>Optional credits curriculum</t>
-  </si>
-  <si>
     <t>!ЗЕ факультативов</t>
   </si>
   <si>
-    <t>Elective credits curriculum</t>
-  </si>
-  <si>
-    <t>Total amount curriculum</t>
-  </si>
-  <si>
-    <t>Total amount of basic</t>
-  </si>
-  <si>
-    <t>Total amoun of optional</t>
-  </si>
-  <si>
-    <t>Total amount of elective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit on competence </t>
-  </si>
-  <si>
     <t>Суффикс после вывода квартиля</t>
   </si>
   <si>
     <t>_quar</t>
   </si>
   <si>
-    <t>Credits total</t>
-  </si>
-  <si>
     <t>ЗЕ факультативов</t>
   </si>
   <si>
-    <t>Credits of elective</t>
-  </si>
-  <si>
     <t>ЗЕ основных дисциплин</t>
   </si>
   <si>
-    <t>Credits of basic</t>
-  </si>
-  <si>
     <t>ЗЕ дисциплин по выбору</t>
   </si>
   <si>
-    <t>Credits of optional</t>
-  </si>
-  <si>
-    <t>Vertices total</t>
-  </si>
-  <si>
-    <t>Course basic total</t>
-  </si>
-  <si>
-    <t>Course optional total</t>
-  </si>
-  <si>
-    <t>Course elective total</t>
-  </si>
-  <si>
-    <t>Course credits max</t>
-  </si>
-  <si>
-    <t>Course credits min</t>
-  </si>
-  <si>
-    <t>Edge weight max</t>
-  </si>
-  <si>
-    <t>Edge weight min</t>
-  </si>
-  <si>
-    <t>Graph diameter weighted</t>
-  </si>
-  <si>
-    <t>Graph diameter</t>
-  </si>
-  <si>
-    <t>Connected components num</t>
-  </si>
-  <si>
-    <t>Spanning tree max</t>
-  </si>
-  <si>
-    <t>Spanning tree min</t>
-  </si>
-  <si>
-    <t>Graph density</t>
-  </si>
-  <si>
     <t>Коэффициент кластеризации (Глобальный)</t>
   </si>
   <si>
-    <t>Global clustering coefficient</t>
-  </si>
-  <si>
     <t>Количество рёбер указанного квартиля для всей выборки</t>
   </si>
   <si>
@@ -2329,12 +2230,6 @@
     <t>Local_rib_on</t>
   </si>
   <si>
-    <t>Max value:</t>
-  </si>
-  <si>
-    <t>Min value:</t>
-  </si>
-  <si>
     <t>Перевод на другой язык указан во вкладке "Параметры вывода", для УП целиком перевод в оранжевых строках и начинается со знака !</t>
   </si>
   <si>
@@ -2366,6 +2261,123 @@
   </si>
   <si>
     <t>output\4_real</t>
+  </si>
+  <si>
+    <t>Вывод_столбца_(можно_менять_по_необходимости,_например,_для_локализации)</t>
+  </si>
+  <si>
+    <t>UGSN_code</t>
+  </si>
+  <si>
+    <t>Total_credit_curriculum</t>
+  </si>
+  <si>
+    <t>Basic_credits_curriculum</t>
+  </si>
+  <si>
+    <t>Optional_credits_curriculum</t>
+  </si>
+  <si>
+    <t>Elective_credits_curriculum</t>
+  </si>
+  <si>
+    <t>Total_amount_curriculum</t>
+  </si>
+  <si>
+    <t>Total_amount_of_basic</t>
+  </si>
+  <si>
+    <t>Total_amoun_of_optional</t>
+  </si>
+  <si>
+    <t>Total_amount_of_elective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗЕ у компетенции за курс </t>
+  </si>
+  <si>
+    <t>Credit_on_cource_competence_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗЕ у компетенции </t>
+  </si>
+  <si>
+    <t>Credit_on_competence_</t>
+  </si>
+  <si>
+    <t>Credits_total</t>
+  </si>
+  <si>
+    <t>Credits_of_elective</t>
+  </si>
+  <si>
+    <t>Credits_of_basic</t>
+  </si>
+  <si>
+    <t>Credits_of_optional</t>
+  </si>
+  <si>
+    <t>Vertices_total</t>
+  </si>
+  <si>
+    <t>Course_basic_total</t>
+  </si>
+  <si>
+    <t>Course_optional_total</t>
+  </si>
+  <si>
+    <t>Course_elective_total</t>
+  </si>
+  <si>
+    <t>Course_credits_max</t>
+  </si>
+  <si>
+    <t>Course_credits_min</t>
+  </si>
+  <si>
+    <t>Edge_weight_max</t>
+  </si>
+  <si>
+    <t>Edge_weight_min</t>
+  </si>
+  <si>
+    <t>Graph_diameter_weighted</t>
+  </si>
+  <si>
+    <t>Graph_diameter</t>
+  </si>
+  <si>
+    <t>Connected_components_num</t>
+  </si>
+  <si>
+    <t>Spanning_tree_max</t>
+  </si>
+  <si>
+    <t>Spanning_tree_min</t>
+  </si>
+  <si>
+    <t>Graph_density</t>
+  </si>
+  <si>
+    <t>Global_clustering_coefficient</t>
+  </si>
+  <si>
+    <t>Amount_with_</t>
+  </si>
+  <si>
+    <t>Нет пути между вершинами</t>
+  </si>
+  <si>
+    <t>No_Path</t>
+  </si>
+  <si>
+    <t>Max_value:</t>
+  </si>
+  <si>
+    <t>Min_value:</t>
+  </si>
+  <si>
+    <t>Truncated_mean:</t>
   </si>
 </sst>
 </file>
@@ -2375,12 +2387,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2557,7 +2577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2637,26 +2657,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2667,37 +2672,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2706,7 +2711,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2718,73 +2723,75 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3101,37 +3108,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="31.09765625" customWidth="1"/>
     <col min="2" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -3144,11 +3151,11 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
       <c r="B3" s="9" t="s">
         <v>57</v>
       </c>
@@ -3159,713 +3166,769 @@
         <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>156</v>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>656</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>654</v>
       </c>
       <c r="B8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>139</v>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
       <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>140</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="45"/>
       <c r="B12" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>675</v>
+      </c>
+      <c r="B15" t="s">
         <v>679</v>
       </c>
-      <c r="B15" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>676</v>
+      </c>
+      <c r="B16" t="s">
         <v>680</v>
       </c>
-      <c r="B16" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>685</v>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>681</v>
       </c>
       <c r="B17" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>761</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>133</v>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>726</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>77</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="47" t="s">
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="B28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
+      <c r="B28" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>627</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="47"/>
+      <c r="B30" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="47" t="s">
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>666</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="47"/>
+      <c r="B32" s="9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
-        <v>628</v>
-      </c>
-      <c r="B33" t="s">
-        <v>547</v>
-      </c>
-      <c r="C33" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
-        <v>168</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>697</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="E35" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="9" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="B40" t="s">
+        <v>545</v>
+      </c>
+      <c r="C40" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="47"/>
+      <c r="B41" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="47"/>
+      <c r="B43" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="48"/>
+      <c r="B45" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="48"/>
+      <c r="B46" s="9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="48"/>
+      <c r="B48" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="48" t="s">
+        <v>727</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="D49" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="48"/>
+      <c r="B50" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="47"/>
+      <c r="B57" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="47"/>
+      <c r="B58" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="47" t="s">
+        <v>729</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="47"/>
+      <c r="B60" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="C60" s="19"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
+        <v>686</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="B74" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="B75" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="20">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="20">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="B80" s="20">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="9" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="56" t="s">
-        <v>762</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>736</v>
-      </c>
-      <c r="D42" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="B46" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
-        <v>764</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>765</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="C53" s="19"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="B81" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+    </row>
+    <row r="88" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+    </row>
+    <row r="89" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>681</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="B67" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="B68" s="20">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B69" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="20">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B72" s="20">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="B73" s="20">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B74" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
-    </row>
-    <row r="81" spans="1:5" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-    </row>
-    <row r="82" spans="1:5" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="B83" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="B84" t="s">
-        <v>705</v>
+      <c r="B90" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="B91" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A87:C87"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A44:A46"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A56:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3880,17 +3943,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="27.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3908,22 +3971,22 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="3" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="23.09765625" customWidth="1"/>
+    <col min="2" max="3" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3931,7 +3994,7 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -3956,45 +4019,45 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="14.375" customWidth="1"/>
+    <col min="1" max="4" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>637</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" t="s">
         <v>640</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>642</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>644</v>
       </c>
-      <c r="D2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3" t="s">
         <v>641</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>643</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>645</v>
-      </c>
-      <c r="D3" t="s">
-        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -4013,49 +4076,49 @@
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.75" customWidth="1"/>
-    <col min="2" max="4" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="43.69921875" customWidth="1"/>
+    <col min="2" max="4" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>0</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4064,25 +4127,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4091,25 +4154,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4118,9 +4181,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4129,23 +4192,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -4153,23 +4216,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4177,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -4185,31 +4248,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>214</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>216</v>
-      </c>
       <c r="B23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -4217,15 +4280,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -4233,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -4241,55 +4304,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>218</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>219</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>220</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>221</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -4297,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -4305,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -4313,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -4321,23 +4384,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4345,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -4353,7 +4416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -4361,39 +4424,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>225</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>257</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>227</v>
-      </c>
       <c r="B46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4401,391 +4464,391 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>228</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>229</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>230</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>231</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>232</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>233</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>234</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>235</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>236</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>237</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>238</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>239</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>240</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>241</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>242</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>243</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>256</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>244</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>245</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>257</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>247</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>248</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>258</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>259</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>248</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>106</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>249</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>250</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>260</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>261</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>262</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>263</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>264</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>265</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>266</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>267</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>268</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>269</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>270</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>271</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>272</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>273</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>274</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>275</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>276</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>277</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>278</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>279</v>
-      </c>
       <c r="B95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -4793,754 +4856,754 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>279</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>280</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>281</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>282</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>283</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>284</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>285</v>
       </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>286</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>287</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>288</v>
       </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>289</v>
       </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>290</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>291</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>292</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>293</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>294</v>
       </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>295</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>296</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>297</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>298</v>
       </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>299</v>
       </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>300</v>
       </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>301</v>
       </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>302</v>
       </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>303</v>
       </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>304</v>
       </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>305</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>306</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>307</v>
       </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>308</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>309</v>
       </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>310</v>
       </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>311</v>
       </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>312</v>
       </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>313</v>
       </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>314</v>
       </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>315</v>
       </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>316</v>
       </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>317</v>
       </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>318</v>
       </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>319</v>
       </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>320</v>
       </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>321</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>322</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>323</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>324</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>325</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>326</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>327</v>
       </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>328</v>
       </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>329</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>330</v>
       </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>331</v>
       </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>332</v>
       </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>333</v>
       </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>334</v>
       </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>335</v>
       </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>336</v>
       </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>337</v>
       </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>338</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>339</v>
       </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>340</v>
       </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>341</v>
       </c>
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>342</v>
       </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>343</v>
       </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>344</v>
       </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>345</v>
       </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>346</v>
       </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>347</v>
       </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>348</v>
       </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>349</v>
       </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>350</v>
       </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>351</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>352</v>
       </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>353</v>
       </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>354</v>
       </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>355</v>
       </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>356</v>
       </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>357</v>
       </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>358</v>
       </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>359</v>
       </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>360</v>
       </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>188</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>361</v>
       </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>362</v>
       </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>363</v>
       </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>364</v>
       </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>365</v>
       </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>366</v>
       </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>367</v>
       </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>368</v>
       </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>369</v>
       </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>370</v>
       </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>371</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>372</v>
-      </c>
       <c r="B189">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>51</v>
       </c>
@@ -5548,271 +5611,271 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>371</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>372</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>373</v>
       </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>374</v>
       </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>375</v>
       </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>376</v>
       </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>377</v>
       </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>378</v>
       </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>379</v>
       </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>380</v>
       </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>381</v>
       </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>382</v>
       </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>383</v>
       </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>384</v>
       </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>385</v>
       </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>386</v>
       </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>387</v>
       </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>388</v>
       </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>389</v>
       </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>390</v>
       </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>391</v>
       </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>392</v>
       </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>393</v>
       </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>394</v>
       </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>395</v>
       </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>396</v>
       </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>397</v>
       </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>398</v>
       </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>399</v>
       </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>400</v>
       </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>401</v>
       </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>402</v>
       </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>403</v>
       </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>404</v>
-      </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>405</v>
-      </c>
       <c r="B223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -5820,31 +5883,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>404</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>405</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>406</v>
       </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>407</v>
-      </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>408</v>
-      </c>
       <c r="B227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>35</v>
       </c>
@@ -5852,562 +5915,562 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
+        <v>407</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>415</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>416</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>417</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>418</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>419</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>420</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>421</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>422</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>423</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>424</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>425</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>426</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>427</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>428</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>429</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>430</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>431</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>432</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>433</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>434</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>435</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>436</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>437</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>438</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>439</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>440</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>441</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>442</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>443</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>444</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>445</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>446</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>447</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>448</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>449</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>450</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>451</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>452</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>453</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>454</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>455</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>456</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>457</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>458</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>459</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>460</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>461</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>462</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>463</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>464</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>408</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>409</v>
       </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>417</v>
-      </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>418</v>
-      </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>419</v>
-      </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>420</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>421</v>
-      </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>422</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>423</v>
-      </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>424</v>
-      </c>
-      <c r="B237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>425</v>
-      </c>
-      <c r="B238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>426</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>427</v>
-      </c>
-      <c r="B240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>428</v>
-      </c>
-      <c r="B241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>429</v>
-      </c>
-      <c r="B242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>430</v>
-      </c>
-      <c r="B243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>431</v>
-      </c>
-      <c r="B244">
-        <v>0</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>432</v>
-      </c>
-      <c r="B245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>433</v>
-      </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>434</v>
-      </c>
-      <c r="B247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>435</v>
-      </c>
-      <c r="B248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>436</v>
-      </c>
-      <c r="B249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>437</v>
-      </c>
-      <c r="B250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>438</v>
-      </c>
-      <c r="B251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>439</v>
-      </c>
-      <c r="B252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>440</v>
-      </c>
-      <c r="B253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>441</v>
-      </c>
-      <c r="B254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>442</v>
-      </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>443</v>
-      </c>
-      <c r="B256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>444</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>445</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>446</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>447</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>448</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>449</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>450</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>451</v>
-      </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>452</v>
-      </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>453</v>
-      </c>
-      <c r="B266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>454</v>
-      </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>455</v>
-      </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>456</v>
-      </c>
-      <c r="B269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>457</v>
-      </c>
-      <c r="B270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>458</v>
-      </c>
-      <c r="B271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>459</v>
-      </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>460</v>
-      </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>461</v>
-      </c>
-      <c r="B274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>462</v>
-      </c>
-      <c r="B275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>463</v>
-      </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>464</v>
-      </c>
-      <c r="B277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>410</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>411</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>412</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>413</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>465</v>
       </c>
-      <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>466</v>
       </c>
-      <c r="B279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>410</v>
-      </c>
-      <c r="B280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>411</v>
-      </c>
-      <c r="B281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>412</v>
-      </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>413</v>
-      </c>
-      <c r="B283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>414</v>
-      </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>415</v>
-      </c>
-      <c r="B285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>467</v>
       </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>468</v>
       </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>469</v>
       </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>470</v>
       </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>471</v>
       </c>
-      <c r="B290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>472</v>
       </c>
-      <c r="B291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>473</v>
       </c>
-      <c r="B292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>474</v>
       </c>
-      <c r="B293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>475</v>
       </c>
-      <c r="B294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>476</v>
       </c>
-      <c r="B295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>477</v>
-      </c>
-      <c r="B296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>478</v>
-      </c>
       <c r="B297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>31</v>
       </c>
@@ -6415,199 +6478,199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
+        <v>477</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>478</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>479</v>
       </c>
-      <c r="B299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>480</v>
       </c>
-      <c r="B300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>481</v>
       </c>
-      <c r="B301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>482</v>
       </c>
-      <c r="B302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>483</v>
       </c>
-      <c r="B303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>484</v>
       </c>
-      <c r="B304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>485</v>
       </c>
-      <c r="B305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>486</v>
       </c>
-      <c r="B306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>487</v>
       </c>
-      <c r="B307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>488</v>
       </c>
-      <c r="B308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>489</v>
       </c>
-      <c r="B309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>490</v>
       </c>
-      <c r="B310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>491</v>
       </c>
-      <c r="B311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>492</v>
       </c>
-      <c r="B312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>493</v>
       </c>
-      <c r="B313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>494</v>
       </c>
-      <c r="B314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>495</v>
       </c>
-      <c r="B315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>496</v>
       </c>
-      <c r="B316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>497</v>
       </c>
-      <c r="B317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>498</v>
       </c>
-      <c r="B318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>499</v>
       </c>
-      <c r="B319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>500</v>
       </c>
-      <c r="B320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>501</v>
-      </c>
-      <c r="B321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>502</v>
-      </c>
       <c r="B322">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>33</v>
       </c>
@@ -6615,181 +6678,181 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
+        <v>501</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>502</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>503</v>
       </c>
-      <c r="B324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>504</v>
       </c>
-      <c r="B325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>505</v>
       </c>
-      <c r="B326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>506</v>
       </c>
-      <c r="B327">
-        <v>1</v>
-      </c>
-      <c r="C327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>507</v>
       </c>
-      <c r="B328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>508</v>
       </c>
-      <c r="B329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>509</v>
       </c>
-      <c r="B330">
-        <v>1</v>
-      </c>
-      <c r="C330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>510</v>
       </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
         <v>511</v>
       </c>
-      <c r="B332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>512</v>
       </c>
-      <c r="B333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>513</v>
       </c>
-      <c r="B334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>514</v>
       </c>
-      <c r="B335">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>515</v>
       </c>
-      <c r="B336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>516</v>
       </c>
-      <c r="B337">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
         <v>517</v>
       </c>
-      <c r="B338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>518</v>
       </c>
-      <c r="B339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>519</v>
       </c>
-      <c r="B340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>520</v>
       </c>
-      <c r="B341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>521</v>
       </c>
-      <c r="B342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>522</v>
-      </c>
-      <c r="B343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>523</v>
-      </c>
       <c r="B344">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>12</v>
       </c>
@@ -6797,39 +6860,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
+        <v>522</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>523</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>524</v>
       </c>
-      <c r="B346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>525</v>
       </c>
-      <c r="B347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>526</v>
-      </c>
-      <c r="B348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>527</v>
-      </c>
       <c r="B349">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>16</v>
       </c>
@@ -6837,15 +6900,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B351">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>20</v>
       </c>
@@ -6853,39 +6916,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
+        <v>527</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>528</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>529</v>
       </c>
-      <c r="B353">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>530</v>
       </c>
-      <c r="B354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>531</v>
-      </c>
-      <c r="B355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>532</v>
-      </c>
       <c r="B356">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>27</v>
       </c>
@@ -6893,103 +6956,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
+        <v>531</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>532</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>533</v>
       </c>
-      <c r="B358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>534</v>
       </c>
-      <c r="B359">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>535</v>
       </c>
-      <c r="B360">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>536</v>
       </c>
-      <c r="B361">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>537</v>
       </c>
-      <c r="B362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>538</v>
       </c>
-      <c r="B363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
         <v>539</v>
       </c>
-      <c r="B364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
         <v>540</v>
       </c>
-      <c r="B365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
         <v>541</v>
       </c>
-      <c r="B366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>542</v>
       </c>
-      <c r="B367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>543</v>
-      </c>
-      <c r="B368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>544</v>
-      </c>
       <c r="B369">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>49</v>
       </c>
@@ -6997,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>18</v>
       </c>
@@ -7005,178 +7068,178 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B372">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
+        <v>544</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
         <v>546</v>
       </c>
-      <c r="B373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>547</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
         <v>548</v>
       </c>
-      <c r="B374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
         <v>549</v>
       </c>
-      <c r="B375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
         <v>550</v>
       </c>
-      <c r="B376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
         <v>551</v>
       </c>
-      <c r="B377">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
         <v>552</v>
       </c>
-      <c r="B378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
         <v>553</v>
       </c>
-      <c r="B379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>554</v>
       </c>
-      <c r="B380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+      <c r="B382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
         <v>555</v>
       </c>
-      <c r="B381">
-        <v>0</v>
-      </c>
-      <c r="C381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
         <v>556</v>
       </c>
-      <c r="B382">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
         <v>557</v>
       </c>
-      <c r="B383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
         <v>558</v>
       </c>
-      <c r="B384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>559</v>
       </c>
-      <c r="B385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>560</v>
-      </c>
-      <c r="B386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>561</v>
-      </c>
       <c r="B387">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
+        <v>566</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>567</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
         <v>568</v>
       </c>
-      <c r="B388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
         <v>569</v>
       </c>
-      <c r="B389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
         <v>570</v>
       </c>
-      <c r="B390">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>571</v>
-      </c>
-      <c r="B391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>572</v>
-      </c>
       <c r="B392">
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>14</v>
       </c>
@@ -7184,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>22</v>
       </c>
@@ -7192,401 +7255,401 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
+        <v>574</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>575</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
         <v>576</v>
       </c>
-      <c r="B395">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
         <v>577</v>
       </c>
-      <c r="B396">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
         <v>578</v>
       </c>
-      <c r="B397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
         <v>579</v>
       </c>
-      <c r="B398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
         <v>580</v>
       </c>
-      <c r="B399">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
         <v>581</v>
       </c>
-      <c r="B400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
         <v>582</v>
       </c>
-      <c r="B401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>583</v>
       </c>
-      <c r="B402">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
         <v>584</v>
       </c>
-      <c r="B403">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
         <v>585</v>
       </c>
-      <c r="B404">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
         <v>586</v>
       </c>
-      <c r="B405">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
         <v>587</v>
       </c>
-      <c r="B406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
         <v>588</v>
       </c>
-      <c r="B407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
         <v>589</v>
       </c>
-      <c r="B408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
         <v>590</v>
       </c>
-      <c r="B409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
         <v>591</v>
       </c>
-      <c r="B410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
         <v>592</v>
       </c>
-      <c r="B411">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
         <v>593</v>
       </c>
-      <c r="B412">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
         <v>594</v>
       </c>
-      <c r="B413">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
         <v>595</v>
       </c>
-      <c r="B414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
         <v>596</v>
       </c>
-      <c r="B415">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
         <v>597</v>
       </c>
-      <c r="B416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
         <v>598</v>
       </c>
-      <c r="B417">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
         <v>599</v>
       </c>
-      <c r="B418">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
         <v>600</v>
       </c>
-      <c r="B419">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
         <v>601</v>
       </c>
-      <c r="B420">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
         <v>602</v>
       </c>
-      <c r="B421">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
         <v>603</v>
       </c>
-      <c r="B422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
         <v>604</v>
       </c>
-      <c r="B423">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
         <v>605</v>
       </c>
-      <c r="B424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
         <v>606</v>
       </c>
-      <c r="B425">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
         <v>607</v>
       </c>
-      <c r="B426">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
         <v>608</v>
       </c>
-      <c r="B427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
         <v>609</v>
       </c>
-      <c r="B428">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
         <v>610</v>
       </c>
-      <c r="B429">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
         <v>611</v>
       </c>
-      <c r="B430">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
         <v>612</v>
       </c>
-      <c r="B431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
         <v>613</v>
       </c>
-      <c r="B432">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
         <v>614</v>
       </c>
-      <c r="B433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
         <v>615</v>
       </c>
-      <c r="B434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
         <v>616</v>
       </c>
-      <c r="B435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
         <v>617</v>
       </c>
-      <c r="B436">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
         <v>618</v>
       </c>
-      <c r="B437">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
         <v>619</v>
       </c>
-      <c r="B438">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
         <v>620</v>
       </c>
-      <c r="B439">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
         <v>621</v>
       </c>
-      <c r="B440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
         <v>622</v>
       </c>
-      <c r="B441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
         <v>623</v>
-      </c>
-      <c r="B442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>624</v>
-      </c>
-      <c r="B443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>625</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -7608,32 +7671,32 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.75" style="12"/>
+    <col min="1" max="16384" width="8.69921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>95</v>
       </c>
@@ -7646,526 +7709,492 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="72.125" customWidth="1"/>
-    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.69921875" customWidth="1"/>
+    <col min="2" max="2" width="72.09765625" customWidth="1"/>
+    <col min="3" max="3" width="26.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>118</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>117</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>87</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>639</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>637</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>716</v>
-      </c>
-      <c r="C5" s="21" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>717</v>
+        <v>173</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>738</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>718</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>719</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>712</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>739</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>720</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>721</v>
-      </c>
-      <c r="C8" s="25" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>740</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>722</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>723</v>
-      </c>
-      <c r="C9" s="25" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>741</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>724</v>
-      </c>
-      <c r="C10" s="21" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>725</v>
-      </c>
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>134</v>
+        <v>746</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>670</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
-        <v>729</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>749</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>750</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>717</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>751</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
+        <v>718</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>752</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>753</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>754</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>755</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>731</v>
+        <v>176</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>756</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>732</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>733</v>
-      </c>
-      <c r="C23" s="40" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>757</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>734</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>735</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>758</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
-        <v>736</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>737</v>
-      </c>
-      <c r="C25" s="40" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>759</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>738</v>
+        <v>169</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>760</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="C27" s="17" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>761</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>740</v>
-      </c>
-      <c r="C28" s="40" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>762</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>741</v>
-      </c>
-      <c r="C29" s="40" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>763</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>764</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>765</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>766</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>767</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>768</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>769</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>722</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
+        <v>723</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>724</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>771</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>742</v>
-      </c>
-      <c r="C30" s="40" t="s">
+      <c r="B39" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="C31" s="17" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>744</v>
-      </c>
-      <c r="C32" s="40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
+        <v>673</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="C41" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>745</v>
-      </c>
-      <c r="C33" s="17" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>746</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>747</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>748</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>749</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>750</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
-        <v>664</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>667</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
-        <v>754</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>755</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>757</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>758</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>759</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>672</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>675</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>677</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>678</v>
-      </c>
-      <c r="C48" s="32" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>674</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="C43" s="32" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8183,197 +8212,197 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="1" max="2" width="27.09765625" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B5" t="s">
         <v>564</v>
-      </c>
-      <c r="B5" t="s">
-        <v>566</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
         <v>203</v>
       </c>
-      <c r="B13" t="s">
-        <v>205</v>
-      </c>
       <c r="C13" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C14" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>561</v>
+      </c>
+      <c r="B15" t="s">
         <v>563</v>
       </c>
-      <c r="B15" t="s">
-        <v>565</v>
-      </c>
       <c r="C15" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C16" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -8390,12 +8419,12 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="27.125" customWidth="1"/>
+    <col min="1" max="2" width="27.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8403,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8411,15 +8440,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -8427,7 +8456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8435,7 +8464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -8443,15 +8472,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -8459,7 +8488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -8467,7 +8496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -8475,7 +8504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -8483,7 +8512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -8491,7 +8520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -8499,15 +8528,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -8515,7 +8544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -8523,7 +8552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -8531,7 +8560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -8539,7 +8568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -8547,7 +8576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -8555,7 +8584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -8563,7 +8592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -8571,7 +8600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -8579,7 +8608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
@@ -8587,7 +8616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -8595,7 +8624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
@@ -8603,7 +8632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -8611,7 +8640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>51</v>
       </c>
@@ -8619,44 +8648,44 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B29" s="15" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="B30" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>128</v>
-      </c>
       <c r="B31" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -8672,54 +8701,54 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -8736,12 +8765,12 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="28.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8759,21 +8788,21 @@
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -8784,7 +8813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>55</v>
       </c>

--- a/UnitTest/4_real.xlsx
+++ b/UnitTest/4_real.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EA4AD1-DD3E-4FE3-9C9A-A8DDEB2E5932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FBEA59-A44F-46C1-BFA5-376E81D28D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="3" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="32328" yWindow="1992" windowWidth="23040" windowHeight="12120" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="780">
   <si>
     <t>Название</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Регулярное выражение разбивки компетенции</t>
   </si>
   <si>
-    <t>(\w{1,})\W{0,}-(.{1,})</t>
-  </si>
-  <si>
     <t>Каталоги данных УП</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
     <t>За какой курс</t>
   </si>
   <si>
-    <t>(\w{1,}).{0,}-(.{1,})\.(.{0,})</t>
-  </si>
-  <si>
     <t>Процент распределения Заголовка компетенции</t>
   </si>
   <si>
@@ -2023,9 +2017,6 @@
     <t>Альтернативная формула</t>
   </si>
   <si>
-    <t>\w{1,}.{0,}-(\d{1,})(\w{1,}).{0,}-(.{1,})</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -2110,9 +2101,6 @@
     <t>Усечение среднего для мер центральной тенденции (процент)</t>
   </si>
   <si>
-    <t>(\w{1,})()</t>
-  </si>
-  <si>
     <t>Регулярное выражение разбивки кода направления подготовки</t>
   </si>
   <si>
@@ -2378,6 +2366,33 @@
   </si>
   <si>
     <t>Truncated_mean:</t>
+  </si>
+  <si>
+    <t>([0-9]{1,})()</t>
+  </si>
+  <si>
+    <t>Сколько вершин в одной строке</t>
+  </si>
+  <si>
+    <t>Сдвиг вершин по X</t>
+  </si>
+  <si>
+    <t>Сдвиг вершин по Y</t>
+  </si>
+  <si>
+    <t>Сдвиг вершин по Z</t>
+  </si>
+  <si>
+    <t>Разброс координат</t>
+  </si>
+  <si>
+    <t>([а-яА-Яa-zA-Z]{1,}).{0,}-(.{1,})\.(.{0,})</t>
+  </si>
+  <si>
+    <t>[а-яА-Яa-zA-Z]{1,}.{0,}-(\d{1,})([а-яА-Яa-zA-Z]{1,}).{0,}-(.{1,})</t>
+  </si>
+  <si>
+    <t>([а-яА-Яa-zA-Z]{1,})[^а-яА-Яa-zA-Z]{0,}-(.{1,})</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2678,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2738,45 +2753,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2792,6 +2768,46 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3108,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3125,20 +3141,20 @@
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -3151,11 +3167,11 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="9" t="s">
         <v>57</v>
       </c>
@@ -3166,7 +3182,7 @@
         <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3174,7 +3190,7 @@
         <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3182,12 +3198,12 @@
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -3203,36 +3219,36 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
-        <v>137</v>
+      <c r="A9" s="56" t="s">
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
-        <v>138</v>
+      <c r="A11" s="56" t="s">
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="9" t="s">
         <v>73</v>
       </c>
@@ -3255,102 +3271,102 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B15" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B16" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B17" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="51" t="s">
         <v>106</v>
       </c>
       <c r="B27" t="s">
@@ -3359,27 +3375,27 @@
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
-        <v>152</v>
+      <c r="A29" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="51" t="s">
         <v>121</v>
       </c>
       <c r="B31" t="s">
@@ -3387,9 +3403,9 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3405,12 +3421,12 @@
         <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -3418,7 +3434,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -3426,7 +3442,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -3434,7 +3450,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -3442,35 +3458,35 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="47" t="s">
-        <v>626</v>
+      <c r="A40" s="51" t="s">
+        <v>624</v>
       </c>
       <c r="B40" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C40" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="47" t="s">
-        <v>166</v>
+      <c r="A42" s="51" t="s">
+        <v>164</v>
       </c>
       <c r="B42" t="s">
         <v>72</v>
@@ -3486,113 +3502,113 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="9" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
-      <c r="B45" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="9" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="48" t="s">
-        <v>170</v>
+      <c r="A47" s="50" t="s">
+        <v>168</v>
       </c>
       <c r="B47" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="9" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="48" t="s">
-        <v>727</v>
+      <c r="A49" s="50" t="s">
+        <v>723</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D49" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="9" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B53" s="5">
         <v>2</v>
@@ -3611,51 +3627,51 @@
         <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="51" t="s">
         <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>777</v>
       </c>
       <c r="C56" t="s">
-        <v>656</v>
+        <v>778</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="47"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="51" t="s">
+        <v>725</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="51"/>
+      <c r="B60" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="47" t="s">
-        <v>729</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>730</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="47"/>
-      <c r="B60" s="9" t="s">
-        <v>732</v>
       </c>
       <c r="C60" s="19"/>
     </row>
@@ -3663,16 +3679,16 @@
       <c r="A61" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>136</v>
+      <c r="B61" s="47" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>686</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>685</v>
+        <v>682</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3685,7 +3701,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>108</v>
@@ -3693,26 +3709,26 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3725,10 +3741,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3749,7 +3765,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>85</v>
@@ -3757,15 +3773,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B74" s="33">
         <v>4</v>
@@ -3773,7 +3789,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B75" s="20">
         <v>0.05</v>
@@ -3781,7 +3797,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B76" s="5">
         <v>6</v>
@@ -3813,7 +3829,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B80" s="20">
         <v>0.05</v>
@@ -3821,18 +3837,18 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B81" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
@@ -3847,7 +3863,7 @@
         <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -3867,51 +3883,88 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
     </row>
     <row r="88" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B90" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B91" t="s">
-        <v>701</v>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B94">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B95">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="B1:J1"/>
@@ -3929,6 +3982,9 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3978,13 +4034,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3994,7 +4050,7 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -4025,39 +4081,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>635</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" t="s">
         <v>638</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>640</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>642</v>
-      </c>
-      <c r="D2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" t="s">
         <v>639</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>641</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>643</v>
-      </c>
-      <c r="D3" t="s">
-        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -4086,18 +4142,18 @@
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>0</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4105,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4113,12 +4169,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4129,7 +4185,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4137,7 +4193,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4145,7 +4201,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4156,7 +4212,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4164,7 +4220,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4172,7 +4228,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4183,7 +4239,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4194,7 +4250,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4202,7 +4258,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4218,7 +4274,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4226,7 +4282,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4250,7 +4306,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4258,7 +4314,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4266,7 +4322,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4282,7 +4338,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4306,7 +4362,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4314,7 +4370,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4322,7 +4378,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4330,7 +4386,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4338,7 +4394,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4346,7 +4402,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4386,7 +4442,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4394,7 +4450,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4426,7 +4482,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4434,7 +4490,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4442,7 +4498,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4450,7 +4506,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4466,7 +4522,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4474,7 +4530,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4482,7 +4538,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4490,7 +4546,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4498,7 +4554,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4506,7 +4562,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4514,7 +4570,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4522,7 +4578,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4530,7 +4586,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4538,7 +4594,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4546,7 +4602,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4554,7 +4610,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4562,7 +4618,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4570,7 +4626,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4578,7 +4634,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4586,7 +4642,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4594,7 +4650,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4602,7 +4658,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4610,7 +4666,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4618,7 +4674,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -4626,7 +4682,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4634,7 +4690,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4674,7 +4730,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4682,7 +4738,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4690,7 +4746,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4698,7 +4754,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4706,7 +4762,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4714,7 +4770,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4722,7 +4778,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4730,7 +4786,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4738,7 +4794,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4746,7 +4802,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4754,7 +4810,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4762,7 +4818,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4770,7 +4826,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4778,7 +4834,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4786,7 +4842,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4794,7 +4850,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4802,7 +4858,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4810,7 +4866,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4818,7 +4874,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4826,7 +4882,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4834,7 +4890,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4842,7 +4898,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4858,7 +4914,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4866,7 +4922,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4874,7 +4930,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4882,7 +4938,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4890,7 +4946,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4898,7 +4954,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4906,7 +4962,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4914,7 +4970,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4922,7 +4978,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4930,7 +4986,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4938,7 +4994,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4946,7 +5002,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4954,7 +5010,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4962,7 +5018,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4970,7 +5026,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4978,7 +5034,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4986,7 +5042,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4994,7 +5050,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5002,7 +5058,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5010,7 +5066,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5018,7 +5074,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5026,7 +5082,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5034,7 +5090,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -5042,7 +5098,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -5050,7 +5106,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -5058,7 +5114,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5066,7 +5122,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -5074,7 +5130,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -5082,7 +5138,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5090,7 +5146,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5098,7 +5154,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5106,7 +5162,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -5114,7 +5170,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -5122,7 +5178,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -5130,7 +5186,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -5138,7 +5194,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -5146,7 +5202,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -5154,7 +5210,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -5162,7 +5218,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -5170,7 +5226,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -5178,7 +5234,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5186,7 +5242,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -5194,7 +5250,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5202,7 +5258,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5210,7 +5266,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -5218,7 +5274,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -5226,7 +5282,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5234,7 +5290,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -5242,7 +5298,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5250,7 +5306,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5258,7 +5314,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5266,7 +5322,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -5274,7 +5330,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5282,7 +5338,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5290,7 +5346,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -5298,7 +5354,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5306,7 +5362,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5314,7 +5370,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -5322,7 +5378,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -5330,7 +5386,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5338,7 +5394,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -5349,7 +5405,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5357,7 +5413,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5365,7 +5421,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -5373,7 +5429,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -5381,7 +5437,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -5389,7 +5445,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -5397,7 +5453,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -5405,7 +5461,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -5413,7 +5469,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -5421,7 +5477,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -5429,7 +5485,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5437,7 +5493,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -5445,7 +5501,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5453,7 +5509,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5461,7 +5517,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -5469,7 +5525,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5477,7 +5533,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -5485,7 +5541,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -5493,7 +5549,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5501,7 +5557,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5509,7 +5565,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5517,7 +5573,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5525,7 +5581,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5533,7 +5589,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5541,7 +5597,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5549,7 +5605,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5557,7 +5613,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -5565,7 +5621,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5573,7 +5629,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5581,7 +5637,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5589,7 +5645,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -5597,7 +5653,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5613,7 +5669,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5621,7 +5677,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5629,7 +5685,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5637,7 +5693,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5645,7 +5701,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5653,7 +5709,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5661,7 +5717,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -5669,7 +5725,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -5677,7 +5733,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -5685,7 +5741,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -5693,7 +5749,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5701,7 +5757,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5709,7 +5765,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5717,7 +5773,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -5725,7 +5781,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5733,7 +5789,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5741,7 +5797,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5749,7 +5805,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5757,7 +5813,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5765,7 +5821,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5773,7 +5829,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -5781,7 +5837,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -5789,7 +5845,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -5797,7 +5853,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -5805,7 +5861,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5813,7 +5869,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5821,7 +5877,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5829,7 +5885,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -5837,7 +5893,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5845,7 +5901,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5853,7 +5909,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -5861,7 +5917,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -5869,7 +5925,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -5885,7 +5941,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5893,7 +5949,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5901,7 +5957,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5917,7 +5973,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -5925,7 +5981,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -5933,7 +5989,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5941,7 +5997,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5949,7 +6005,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5957,7 +6013,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -5965,7 +6021,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5973,7 +6029,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5981,7 +6037,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5989,7 +6045,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5997,7 +6053,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -6005,7 +6061,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -6013,7 +6069,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -6021,7 +6077,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -6029,7 +6085,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -6037,7 +6093,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -6048,7 +6104,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -6056,7 +6112,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -6064,7 +6120,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -6072,7 +6128,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -6080,7 +6136,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -6088,7 +6144,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -6096,7 +6152,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -6104,7 +6160,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -6112,7 +6168,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -6120,7 +6176,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -6128,7 +6184,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -6136,7 +6192,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -6144,7 +6200,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -6152,7 +6208,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -6160,7 +6216,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -6168,7 +6224,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -6176,7 +6232,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -6184,7 +6240,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -6192,7 +6248,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -6200,7 +6256,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6208,7 +6264,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -6216,7 +6272,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -6224,7 +6280,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -6232,7 +6288,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -6240,7 +6296,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -6248,7 +6304,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -6256,7 +6312,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -6264,7 +6320,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -6272,7 +6328,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6280,7 +6336,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -6288,7 +6344,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -6296,7 +6352,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -6304,7 +6360,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -6312,7 +6368,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -6320,7 +6376,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -6328,7 +6384,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -6336,7 +6392,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -6344,7 +6400,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -6352,7 +6408,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -6360,7 +6416,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -6368,7 +6424,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -6376,7 +6432,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -6384,7 +6440,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -6392,7 +6448,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -6400,7 +6456,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -6408,7 +6464,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -6416,7 +6472,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -6424,7 +6480,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6432,7 +6488,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -6440,7 +6496,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -6448,7 +6504,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -6456,7 +6512,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -6464,7 +6520,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -6480,7 +6536,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -6488,7 +6544,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -6496,7 +6552,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -6504,7 +6560,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -6512,7 +6568,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -6520,7 +6576,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -6528,7 +6584,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -6536,7 +6592,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -6544,7 +6600,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6552,7 +6608,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -6560,7 +6616,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -6568,7 +6624,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -6576,7 +6632,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -6584,7 +6640,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6592,7 +6648,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -6600,7 +6656,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -6608,7 +6664,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -6616,7 +6672,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -6624,7 +6680,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -6632,7 +6688,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6640,7 +6696,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -6648,7 +6704,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -6656,7 +6712,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -6664,7 +6720,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -6680,7 +6736,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6688,7 +6744,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6696,7 +6752,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -6704,7 +6760,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6715,7 +6771,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -6723,7 +6779,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -6731,7 +6787,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6742,7 +6798,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -6750,7 +6806,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -6758,7 +6814,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6766,7 +6822,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -6774,7 +6830,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -6782,7 +6838,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -6790,7 +6846,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -6798,7 +6854,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -6806,7 +6862,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -6814,7 +6870,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -6822,7 +6878,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -6830,7 +6886,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -6838,7 +6894,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -6846,7 +6902,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6862,7 +6918,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -6870,7 +6926,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -6878,7 +6934,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -6886,7 +6942,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6902,7 +6958,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -6918,7 +6974,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6926,7 +6982,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6934,7 +6990,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -6942,7 +6998,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -6958,7 +7014,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -6966,7 +7022,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -6974,7 +7030,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -6982,7 +7038,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -6990,7 +7046,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -6998,7 +7054,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -7006,7 +7062,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -7014,7 +7070,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -7022,7 +7078,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -7030,7 +7086,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -7038,7 +7094,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -7046,7 +7102,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -7070,7 +7126,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -7078,7 +7134,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -7086,7 +7142,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -7094,7 +7150,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -7102,7 +7158,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -7110,7 +7166,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -7118,7 +7174,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -7126,7 +7182,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -7134,7 +7190,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -7142,7 +7198,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -7153,7 +7209,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -7161,7 +7217,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -7169,7 +7225,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -7177,7 +7233,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -7185,7 +7241,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -7193,7 +7249,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -7201,7 +7257,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -7209,7 +7265,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -7217,7 +7273,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -7225,7 +7281,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -7233,7 +7289,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -7257,7 +7313,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -7265,7 +7321,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -7273,7 +7329,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -7281,7 +7337,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -7289,7 +7345,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -7297,7 +7353,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -7305,7 +7361,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -7313,7 +7369,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -7321,7 +7377,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -7329,7 +7385,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -7337,7 +7393,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -7345,7 +7401,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -7353,7 +7409,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -7361,7 +7417,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -7369,7 +7425,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -7377,7 +7433,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -7385,7 +7441,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -7393,7 +7449,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -7401,7 +7457,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -7409,7 +7465,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -7417,7 +7473,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -7425,7 +7481,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -7433,7 +7489,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -7441,7 +7497,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -7449,7 +7505,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -7457,7 +7513,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -7465,7 +7521,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -7473,7 +7529,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -7481,7 +7537,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -7489,7 +7545,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -7497,7 +7553,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -7505,7 +7561,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -7513,7 +7569,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -7521,7 +7577,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -7529,7 +7585,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -7537,7 +7593,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -7545,7 +7601,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -7553,7 +7609,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -7561,7 +7617,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -7569,7 +7625,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -7577,7 +7633,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -7585,7 +7641,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -7593,7 +7649,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -7601,7 +7657,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -7609,7 +7665,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -7617,7 +7673,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -7625,7 +7681,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -7633,7 +7689,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -7641,7 +7697,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -7649,7 +7705,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -7711,7 +7767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7727,13 +7783,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>117</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -7741,7 +7797,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>72</v>
@@ -7749,10 +7805,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>72</v>
@@ -7760,10 +7816,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>72</v>
@@ -7771,10 +7827,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>632</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>737</v>
+        <v>630</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>733</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>72</v>
@@ -7782,32 +7838,32 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>738</v>
+        <v>171</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>734</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
-        <v>712</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>739</v>
+      <c r="A7" s="42" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>735</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
-        <v>713</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>740</v>
+      <c r="A8" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>736</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>72</v>
@@ -7815,10 +7871,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>714</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>741</v>
+        <v>710</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>737</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>72</v>
@@ -7826,10 +7882,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>72</v>
@@ -7837,10 +7893,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>72</v>
@@ -7848,10 +7904,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>72</v>
@@ -7859,10 +7915,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>72</v>
@@ -7870,10 +7926,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>72</v>
@@ -7881,10 +7937,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>72</v>
@@ -7892,10 +7948,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>750</v>
+        <v>169</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>746</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>72</v>
@@ -7903,32 +7959,32 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>717</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>751</v>
+        <v>713</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>747</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
-        <v>718</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>752</v>
+      <c r="A18" s="45" t="s">
+        <v>714</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>748</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="59" t="s">
-        <v>719</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>753</v>
+      <c r="A19" s="46" t="s">
+        <v>715</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>749</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>72</v>
@@ -7936,10 +7992,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>754</v>
+        <v>170</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>750</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>72</v>
@@ -7947,10 +8003,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>755</v>
+        <v>173</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>751</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>72</v>
@@ -7958,10 +8014,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>756</v>
+        <v>174</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>752</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>72</v>
@@ -7969,10 +8025,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>757</v>
+        <v>175</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>753</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>72</v>
@@ -7982,8 +8038,8 @@
       <c r="A24" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="56" t="s">
-        <v>758</v>
+      <c r="B24" s="43" t="s">
+        <v>754</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>72</v>
@@ -7991,10 +8047,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>759</v>
+        <v>165</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>755</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>72</v>
@@ -8002,10 +8058,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>760</v>
+        <v>167</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>756</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>72</v>
@@ -8013,10 +8069,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>761</v>
+        <v>166</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>757</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>72</v>
@@ -8026,8 +8082,8 @@
       <c r="A28" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>762</v>
+      <c r="B28" s="43" t="s">
+        <v>758</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>72</v>
@@ -8037,8 +8093,8 @@
       <c r="A29" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>763</v>
+      <c r="B29" s="44" t="s">
+        <v>759</v>
       </c>
       <c r="C29" s="35" t="s">
         <v>72</v>
@@ -8048,8 +8104,8 @@
       <c r="A30" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="56" t="s">
-        <v>764</v>
+      <c r="B30" s="43" t="s">
+        <v>760</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>72</v>
@@ -8059,8 +8115,8 @@
       <c r="A31" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="57" t="s">
-        <v>765</v>
+      <c r="B31" s="44" t="s">
+        <v>761</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>72</v>
@@ -8070,8 +8126,8 @@
       <c r="A32" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="56" t="s">
-        <v>766</v>
+      <c r="B32" s="43" t="s">
+        <v>762</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>72</v>
@@ -8079,10 +8135,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>767</v>
+        <v>185</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>763</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>72</v>
@@ -8090,10 +8146,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>720</v>
-      </c>
-      <c r="B34" s="56" t="s">
-        <v>768</v>
+        <v>716</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>764</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>72</v>
@@ -8101,10 +8157,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>769</v>
+        <v>659</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>765</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>72</v>
@@ -8112,10 +8168,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>722</v>
+        <v>717</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>718</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>72</v>
@@ -8123,10 +8179,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>723</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>724</v>
+        <v>719</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>720</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>72</v>
@@ -8134,10 +8190,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>770</v>
-      </c>
-      <c r="B38" s="56" t="s">
-        <v>771</v>
+        <v>766</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>767</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>72</v>
@@ -8148,7 +8204,7 @@
         <v>112</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>72</v>
@@ -8159,7 +8215,7 @@
         <v>113</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>72</v>
@@ -8167,10 +8223,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>72</v>
@@ -8178,10 +8234,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>72</v>
@@ -8189,10 +8245,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>72</v>
@@ -8223,18 +8279,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>72</v>
@@ -8242,10 +8298,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>72</v>
@@ -8253,10 +8309,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
@@ -8264,10 +8320,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5" t="s">
         <v>562</v>
-      </c>
-      <c r="B5" t="s">
-        <v>564</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -8275,10 +8331,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
         <v>72</v>
@@ -8286,10 +8342,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -8297,10 +8353,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>72</v>
@@ -8308,10 +8364,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>72</v>
@@ -8319,10 +8375,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>72</v>
@@ -8330,10 +8386,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>72</v>
@@ -8341,10 +8397,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>72</v>
@@ -8352,57 +8408,57 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" t="s">
         <v>201</v>
       </c>
-      <c r="B13" t="s">
-        <v>203</v>
-      </c>
       <c r="C13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C14" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>559</v>
+      </c>
+      <c r="B15" t="s">
         <v>561</v>
       </c>
-      <c r="B15" t="s">
-        <v>563</v>
-      </c>
       <c r="C15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -8445,7 +8501,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8477,7 +8533,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8533,7 +8589,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8661,7 +8717,7 @@
         <v>126</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -8669,23 +8725,23 @@
         <v>127</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -8708,47 +8764,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -8796,11 +8852,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
